--- a/doc/05_ファイル構成一覧表_KSHMY.xlsx
+++ b/doc/05_ファイル構成一覧表_KSHMY.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\PlusDojo6月作成ドキュメントテンプレート\PlusDojo6月作成ドキュメントテンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E31055FD-6617-4020-A039-FC822ABC99C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2830302-16D8-4242-9331-5DF1AF463270}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="128">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -680,13 +680,146 @@
       <t>ワタナベ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みんなで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当者</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>和久田</t>
+  </si>
+  <si>
+    <t>西野</t>
+  </si>
+  <si>
+    <t>和久田</t>
+    <rPh sb="0" eb="3">
+      <t>ワクダ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>清水</t>
+    <rPh sb="0" eb="2">
+      <t>シミズ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>渡邊</t>
+    <rPh sb="0" eb="2">
+      <t>ワタナベ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>畑中</t>
+    <rPh sb="0" eb="2">
+      <t>ハタナカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>西野</t>
+    <rPh sb="0" eb="2">
+      <t>ニシノ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>和久田</t>
+    <rPh sb="0" eb="3">
+      <t>ワクダ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>清水</t>
+    <rPh sb="0" eb="2">
+      <t>シミズ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>渡邊</t>
+    <rPh sb="0" eb="2">
+      <t>ワタナベ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>畑中</t>
+    <rPh sb="0" eb="2">
+      <t>ハタナカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>西野</t>
+    <rPh sb="0" eb="2">
+      <t>ニシノ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>calendar_regist.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calendar_edit.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gourmet.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gourmet_regist.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gourmet_edit.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>清水</t>
+  </si>
+  <si>
+    <t>全員</t>
+  </si>
+  <si>
+    <t>渡邊</t>
+  </si>
+  <si>
+    <t>畑中</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -702,8 +835,41 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -716,8 +882,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -751,13 +923,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -767,23 +982,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1099,10 +1320,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G53"/>
+  <dimension ref="B2:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1111,10 +1332,10 @@
     <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="58.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+    <col min="7" max="8" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1133,56 +1354,65 @@
       <c r="G2" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="4">
+      <c r="H2" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="8">
+      <c r="H3" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H4" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
         <f t="shared" ref="B5:B53" si="0">ROW()-2</f>
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1191,40 +1421,50 @@
       <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="1">
+      <c r="H5" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H6" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1233,40 +1473,46 @@
       <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="1">
+      <c r="H7" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H8" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1275,22 +1521,25 @@
       <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H9" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1299,40 +1548,46 @@
       <c r="G10" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="1">
+      <c r="H10" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H11" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -1341,72 +1596,84 @@
       <c r="G12" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H12" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H13" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H14" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="1">
+      <c r="H15" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1422,33 +1689,39 @@
       <c r="F16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H16" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="1">
+      <c r="H17" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1464,54 +1737,63 @@
       <c r="F18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H18" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H19" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="1">
+      <c r="H20" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -1527,472 +1809,547 @@
       <c r="F21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H21" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H22" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H23" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H24" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="1" t="s">
         <v>75</v>
       </c>
       <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H25" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="1" t="s">
         <v>76</v>
       </c>
       <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H26" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H27" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H28" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H29" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H30" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="1" t="s">
         <v>81</v>
       </c>
       <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H31" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="1" t="s">
         <v>82</v>
       </c>
       <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H32" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H33" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="1" t="s">
         <v>84</v>
       </c>
       <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H34" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="1" t="s">
         <v>66</v>
       </c>
       <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H35" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H36" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H37" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="1" t="s">
         <v>87</v>
       </c>
       <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H38" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="1" t="s">
         <v>88</v>
       </c>
       <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H39" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="1" t="s">
         <v>89</v>
       </c>
       <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H40" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F41" s="8" t="s">
+      <c r="E41" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>90</v>
       </c>
       <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H41" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E42" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F42" s="8" t="s">
+      <c r="E42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>91</v>
       </c>
       <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H42" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E43" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F43" s="8" t="s">
+      <c r="E43" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>92</v>
       </c>
       <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H43" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E44" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F44" s="8" t="s">
+      <c r="E44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>93</v>
       </c>
       <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H44" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F45" s="8" t="s">
+      <c r="E45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>94</v>
       </c>
       <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="8">
+      <c r="H45" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
@@ -2003,8 +2360,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="8">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -2015,8 +2372,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="8">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
@@ -2028,7 +2385,7 @@
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="8">
+      <c r="B49" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
@@ -2040,7 +2397,7 @@
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="8">
+      <c r="B50" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -2052,7 +2409,7 @@
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="8">
+      <c r="B51" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
@@ -2064,7 +2421,7 @@
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="8">
+      <c r="B52" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -2076,7 +2433,7 @@
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="8">
+      <c r="B53" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
@@ -2090,10 +2447,26 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2264,22 +2637,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2296,29 +2679,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_KSHMY.xlsx
+++ b/doc/05_ファイル構成一覧表_KSHMY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2830302-16D8-4242-9331-5DF1AF463270}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3BD024-8798-44CB-8A0C-47A0643B95B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="138">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -682,10 +682,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>みんなで</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
@@ -813,13 +809,161 @@
   </si>
   <si>
     <t>畑中</t>
+  </si>
+  <si>
+    <t>ログイン画面に遷移</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グルメ編集画面に遷移</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録画面に遷移、メイン画面に遷移</t>
+    <rPh sb="3" eb="7">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グルメ編集画面に遷移、グーグルマップに遷移</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー登録画面に遷移（新しく他s部が開く）、カレンダー登録画面に遷移（新しくタブが開く）</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（タブが閉じて）カレンダ画面に遷移</t>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イチガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（タブが閉じて）カレンダー画面に遷移</t>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グルメ一覧画面に遷移</t>
+    <rPh sb="3" eb="7">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューバーは別途作成</t>
+  </si>
+  <si>
+    <t>全員(西野)</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシノ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>全員（畑中さん）</t>
+    <rPh sb="3" eb="5">
+      <t>ハタナカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -868,8 +1012,17 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -888,8 +1041,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -966,13 +1125,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -986,9 +1154,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1005,6 +1170,33 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1320,10 +1512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:L53"/>
+  <dimension ref="B2:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1335,7 +1527,7 @@
     <col min="7" max="8" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1355,10 +1547,10 @@
         <v>97</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -1377,11 +1569,17 @@
       <c r="G3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="H3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="M3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -1400,11 +1598,11 @@
       <c r="G4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="H4" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
         <f t="shared" ref="B5:B53" si="0">ROW()-2</f>
         <v>3</v>
@@ -1424,39 +1622,41 @@
       <c r="G5" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="5">
+      <c r="H5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="H6" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1476,59 +1676,68 @@
       <c r="G7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="5">
+      <c r="H7" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="1">
+      <c r="H8" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="H9" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1548,35 +1757,41 @@
       <c r="G10" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="5">
+      <c r="H10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="H11" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1596,11 +1811,14 @@
       <c r="G12" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="H12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="29" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1620,11 +1838,15 @@
       <c r="G13" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="H13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1644,11 +1866,11 @@
       <c r="G14" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="H14" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1668,32 +1890,32 @@
       <c r="G15" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="5">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1716,32 +1938,32 @@
       <c r="G17" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>116</v>
+      <c r="H17" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="5">
+      <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>115</v>
+      <c r="H18" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1764,8 +1986,8 @@
       <c r="G19" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>113</v>
+      <c r="H19" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1788,32 +2010,32 @@
       <c r="G20" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>117</v>
+      <c r="H20" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="5">
+      <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>115</v>
+      <c r="H21" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1836,8 +2058,8 @@
       <c r="G22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>118</v>
+      <c r="H22" s="6" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1860,8 +2082,8 @@
       <c r="G23" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>114</v>
+      <c r="H23" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1882,8 +2104,8 @@
         <v>52</v>
       </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="8" t="s">
-        <v>109</v>
+      <c r="H24" s="7" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1904,8 +2126,8 @@
         <v>75</v>
       </c>
       <c r="G25" s="1"/>
-      <c r="H25" s="7" t="s">
-        <v>113</v>
+      <c r="H25" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1926,8 +2148,8 @@
         <v>76</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="7" t="s">
-        <v>114</v>
+      <c r="H26" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1948,8 +2170,8 @@
         <v>77</v>
       </c>
       <c r="G27" s="1"/>
-      <c r="H27" s="7" t="s">
-        <v>115</v>
+      <c r="H27" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1970,8 +2192,8 @@
         <v>78</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="7" t="s">
-        <v>116</v>
+      <c r="H28" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1992,8 +2214,8 @@
         <v>79</v>
       </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="7" t="s">
-        <v>115</v>
+      <c r="H29" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2014,8 +2236,8 @@
         <v>80</v>
       </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="7" t="s">
-        <v>113</v>
+      <c r="H30" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2036,8 +2258,8 @@
         <v>81</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="7" t="s">
-        <v>117</v>
+      <c r="H31" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2058,8 +2280,8 @@
         <v>82</v>
       </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="7" t="s">
-        <v>115</v>
+      <c r="H32" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2080,8 +2302,8 @@
         <v>83</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="7" t="s">
-        <v>118</v>
+      <c r="H33" s="6" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2102,8 +2324,8 @@
         <v>84</v>
       </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="7" t="s">
-        <v>114</v>
+      <c r="H34" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2124,8 +2346,8 @@
         <v>66</v>
       </c>
       <c r="G35" s="1"/>
-      <c r="H35" s="9" t="s">
-        <v>109</v>
+      <c r="H35" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2146,8 +2368,8 @@
         <v>85</v>
       </c>
       <c r="G36" s="1"/>
-      <c r="H36" s="10" t="s">
-        <v>105</v>
+      <c r="H36" s="9" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2168,8 +2390,8 @@
         <v>86</v>
       </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="10" t="s">
-        <v>124</v>
+      <c r="H37" s="9" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2190,8 +2412,8 @@
         <v>87</v>
       </c>
       <c r="G38" s="1"/>
-      <c r="H38" s="10" t="s">
-        <v>125</v>
+      <c r="H38" s="9" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2212,8 +2434,8 @@
         <v>88</v>
       </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="10" t="s">
-        <v>126</v>
+      <c r="H39" s="9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2234,8 +2456,8 @@
         <v>89</v>
       </c>
       <c r="G40" s="1"/>
-      <c r="H40" s="10" t="s">
-        <v>125</v>
+      <c r="H40" s="9" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2250,14 +2472,14 @@
         <v>64</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>90</v>
       </c>
       <c r="G41" s="1"/>
-      <c r="H41" s="10" t="s">
-        <v>105</v>
+      <c r="H41" s="9" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2272,14 +2494,14 @@
         <v>64</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>91</v>
       </c>
       <c r="G42" s="1"/>
-      <c r="H42" s="10" t="s">
-        <v>127</v>
+      <c r="H42" s="9" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2294,14 +2516,14 @@
         <v>64</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>92</v>
       </c>
       <c r="G43" s="1"/>
-      <c r="H43" s="10" t="s">
-        <v>125</v>
+      <c r="H43" s="9" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2316,14 +2538,14 @@
         <v>64</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>93</v>
       </c>
       <c r="G44" s="1"/>
-      <c r="H44" s="10" t="s">
-        <v>106</v>
+      <c r="H44" s="9" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2338,14 +2560,14 @@
         <v>64</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>94</v>
       </c>
       <c r="G45" s="1"/>
-      <c r="H45" s="10" t="s">
-        <v>124</v>
+      <c r="H45" s="9" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2452,18 +2674,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2638,6 +2860,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2650,14 +2880,6 @@
     <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
     <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
